--- a/Dict.xlsx
+++ b/Dict.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="65">
   <si>
     <t>Word</t>
   </si>
@@ -28,6 +28,90 @@
     <t>Chinese_Meanings</t>
   </si>
   <si>
+    <t>manifest</t>
+  </si>
+  <si>
+    <t>eccentric</t>
+  </si>
+  <si>
+    <t>extravagant</t>
+  </si>
+  <si>
+    <t>flush</t>
+  </si>
+  <si>
+    <t>haunt</t>
+  </si>
+  <si>
+    <t>initiate</t>
+  </si>
+  <si>
+    <t>deem</t>
+  </si>
+  <si>
+    <t>deprive</t>
+  </si>
+  <si>
+    <t>mingle</t>
+  </si>
+  <si>
+    <t>obscure</t>
+  </si>
+  <si>
+    <t>paradox</t>
+  </si>
+  <si>
+    <t>refrain</t>
+  </si>
+  <si>
+    <t>surgical</t>
+  </si>
+  <si>
+    <t>terminate</t>
+  </si>
+  <si>
+    <t>allege</t>
+  </si>
+  <si>
+    <t>analogy</t>
+  </si>
+  <si>
+    <t>contemplate</t>
+  </si>
+  <si>
+    <t>conceive</t>
+  </si>
+  <si>
+    <t>certify</t>
+  </si>
+  <si>
+    <t>brisk</t>
+  </si>
+  <si>
+    <t>homogeneous</t>
+  </si>
+  <si>
+    <t>immerse</t>
+  </si>
+  <si>
+    <t>indulge</t>
+  </si>
+  <si>
+    <t>retrieve</t>
+  </si>
+  <si>
+    <t>suppress</t>
+  </si>
+  <si>
+    <t>testify</t>
+  </si>
+  <si>
+    <t>billionaire</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
     <t>hello</t>
   </si>
   <si>
@@ -37,7 +121,91 @@
     <t>2022-3-11</t>
   </si>
   <si>
-    <t>None</t>
+    <t>明显的</t>
+  </si>
+  <si>
+    <t>古怪的人</t>
+  </si>
+  <si>
+    <t>奢侈的</t>
+  </si>
+  <si>
+    <t>脸红</t>
+  </si>
+  <si>
+    <t>萦绕</t>
+  </si>
+  <si>
+    <t>开始</t>
+  </si>
+  <si>
+    <t>固有的</t>
+  </si>
+  <si>
+    <t>直觉</t>
+  </si>
+  <si>
+    <t>使混合</t>
+  </si>
+  <si>
+    <t>无名的，费解的</t>
+  </si>
+  <si>
+    <t>似是而非的话</t>
+  </si>
+  <si>
+    <t>克制</t>
+  </si>
+  <si>
+    <t>外科的</t>
+  </si>
+  <si>
+    <t>停止</t>
+  </si>
+  <si>
+    <t>宣称</t>
+  </si>
+  <si>
+    <t>比拟</t>
+  </si>
+  <si>
+    <t>打算</t>
+  </si>
+  <si>
+    <t>构思</t>
+  </si>
+  <si>
+    <t>证明</t>
+  </si>
+  <si>
+    <t>轻快的</t>
+  </si>
+  <si>
+    <t>同种类的</t>
+  </si>
+  <si>
+    <t>使沉浸在</t>
+  </si>
+  <si>
+    <t>沉溺于，满足</t>
+  </si>
+  <si>
+    <t>重新得到</t>
+  </si>
+  <si>
+    <t>压制，镇压</t>
+  </si>
+  <si>
+    <t>作证</t>
+  </si>
+  <si>
+    <t>亿万富翁</t>
+  </si>
+  <si>
+    <t>大量</t>
+  </si>
+  <si>
+    <t>你好</t>
   </si>
   <si>
     <t>中国</t>
@@ -398,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,13 +594,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -443,13 +611,625 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
         <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
